--- a/class_schedules_fall_2019/LATIN AMERICAN STUDIES (LATS).xlsx
+++ b/class_schedules_fall_2019/LATIN AMERICAN STUDIES (LATS).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="198">
   <si>
     <t>050</t>
   </si>
@@ -58,18 +58,315 @@
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>13765</t>
   </si>
   <si>
+    <t>13766</t>
+  </si>
+  <si>
+    <t>13767</t>
+  </si>
+  <si>
+    <t>13768</t>
+  </si>
+  <si>
+    <t>13769</t>
+  </si>
+  <si>
+    <t>13770</t>
+  </si>
+  <si>
+    <t>13771</t>
+  </si>
+  <si>
+    <t>13772</t>
+  </si>
+  <si>
+    <t>13773</t>
+  </si>
+  <si>
+    <t>13774</t>
+  </si>
+  <si>
+    <t>13775</t>
+  </si>
+  <si>
+    <t>13776</t>
+  </si>
+  <si>
+    <t>13777</t>
+  </si>
+  <si>
+    <t>13787</t>
+  </si>
+  <si>
+    <t>13788</t>
+  </si>
+  <si>
+    <t>13789</t>
+  </si>
+  <si>
+    <t>13790</t>
+  </si>
+  <si>
+    <t>13791</t>
+  </si>
+  <si>
+    <t>13792</t>
+  </si>
+  <si>
+    <t>13793</t>
+  </si>
+  <si>
+    <t>13794</t>
+  </si>
+  <si>
+    <t>13795</t>
+  </si>
+  <si>
+    <t>13796</t>
+  </si>
+  <si>
+    <t>13797</t>
+  </si>
+  <si>
+    <t>13798</t>
+  </si>
+  <si>
+    <t>13799</t>
+  </si>
+  <si>
+    <t>13800</t>
+  </si>
+  <si>
+    <t>13801</t>
+  </si>
+  <si>
+    <t>13802</t>
+  </si>
+  <si>
+    <t>13803</t>
+  </si>
+  <si>
+    <t>13828</t>
+  </si>
+  <si>
+    <t>13804</t>
+  </si>
+  <si>
+    <t>13805</t>
+  </si>
+  <si>
+    <t>13806</t>
+  </si>
+  <si>
+    <t>13807</t>
+  </si>
+  <si>
+    <t>13808</t>
+  </si>
+  <si>
+    <t>13809</t>
+  </si>
+  <si>
+    <t>13810</t>
+  </si>
+  <si>
+    <t>13811</t>
+  </si>
+  <si>
+    <t>13812</t>
+  </si>
+  <si>
+    <t>13813</t>
+  </si>
+  <si>
+    <t>13814</t>
+  </si>
+  <si>
+    <t>13815</t>
+  </si>
+  <si>
+    <t>13816</t>
+  </si>
+  <si>
+    <t>13817</t>
+  </si>
+  <si>
+    <t>13826</t>
+  </si>
+  <si>
+    <t>13827</t>
+  </si>
+  <si>
+    <t>13829</t>
+  </si>
+  <si>
+    <t>13825</t>
+  </si>
+  <si>
     <t>13583</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>14828</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>13584</t>
   </si>
   <si>
+    <t>13585</t>
+  </si>
+  <si>
     <t>13586</t>
   </si>
   <si>
@@ -91,30 +388,117 @@
     <t>13590</t>
   </si>
   <si>
+    <t>13591</t>
+  </si>
+  <si>
+    <t>13592</t>
+  </si>
+  <si>
+    <t>13593</t>
+  </si>
+  <si>
+    <t>13594</t>
+  </si>
+  <si>
+    <t>13595</t>
+  </si>
+  <si>
+    <t>13596</t>
+  </si>
+  <si>
+    <t>14416</t>
+  </si>
+  <si>
+    <t>14830</t>
+  </si>
+  <si>
     <t>13597</t>
   </si>
   <si>
+    <t>13598</t>
+  </si>
+  <si>
+    <t>13599</t>
+  </si>
+  <si>
+    <t>13600</t>
+  </si>
+  <si>
+    <t>13601</t>
+  </si>
+  <si>
+    <t>13602</t>
+  </si>
+  <si>
+    <t>13603</t>
+  </si>
+  <si>
+    <t>14417</t>
+  </si>
+  <si>
+    <t>14562</t>
+  </si>
+  <si>
     <t>13604</t>
   </si>
   <si>
+    <t>13605</t>
+  </si>
+  <si>
+    <t>13606</t>
+  </si>
+  <si>
+    <t>13607</t>
+  </si>
+  <si>
+    <t>13608</t>
+  </si>
+  <si>
+    <t>13609</t>
+  </si>
+  <si>
+    <t>13610</t>
+  </si>
+  <si>
+    <t>14418</t>
+  </si>
+  <si>
+    <t>14831</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0430</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>0900pm</t>
+  </si>
+  <si>
+    <t>0600pm</t>
+  </si>
+  <si>
     <t>Intro to Oberlin Life/Learning</t>
   </si>
   <si>
     <t>Intro to Bonner Life</t>
   </si>
   <si>
+    <t>TBA</t>
+  </si>
+  <si>
     <t>Oberlin F1RST</t>
   </si>
   <si>
@@ -130,12 +514,12 @@
     <t>Intro to Peer Helping Skills 2</t>
   </si>
   <si>
+    <t>Intro to</t>
+  </si>
+  <si>
     <t>Intro to Academic</t>
   </si>
   <si>
-    <t>Intro to Academic Advising</t>
-  </si>
-  <si>
     <t>Leadership Development</t>
   </si>
   <si>
@@ -145,46 +529,55 @@
     <t>M</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>Pottinger Trecia</t>
+  </si>
+  <si>
+    <t>Escobedo Brook</t>
   </si>
   <si>
     <t>TR</t>
   </si>
   <si>
+    <t>Academic</t>
+  </si>
+  <si>
     <t>Advising</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
     <t>II</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>0800-0900pm</t>
-  </si>
-  <si>
-    <t>0700-0900pm</t>
-  </si>
-  <si>
-    <t>0430-0600pm</t>
-  </si>
-  <si>
-    <t>1000-1050am</t>
-  </si>
-  <si>
-    <t>0430-0615pm</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>0230-0420pm</t>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0220pm</t>
+  </si>
+  <si>
+    <t>0615pm</t>
+  </si>
+  <si>
+    <t>0420pm</t>
+  </si>
+  <si>
+    <t>Jackson</t>
   </si>
   <si>
     <t>Hamdan Dana</t>
@@ -203,6 +596,18 @@
   </si>
   <si>
     <t>Julian Thomas</t>
+  </si>
+  <si>
+    <t>Bautista Adrian</t>
+  </si>
+  <si>
+    <t>Davidson K</t>
+  </si>
+  <si>
+    <t>Jenkins Christophe</t>
+  </si>
+  <si>
+    <t>Gisemba Edward</t>
   </si>
 </sst>
 </file>
@@ -560,13 +965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -597,8 +1002,11 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -609,448 +1017,3235 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>178</v>
+      </c>
+      <c r="J39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" t="s">
+        <v>156</v>
+      </c>
+      <c r="K47" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" t="s">
+        <v>156</v>
+      </c>
+      <c r="K51" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" t="s">
+        <v>160</v>
+      </c>
+      <c r="L53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" t="s">
+        <v>183</v>
+      </c>
+      <c r="K57" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" t="s">
+        <v>160</v>
+      </c>
+      <c r="L58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" t="s">
+        <v>152</v>
+      </c>
+      <c r="J59" t="s">
+        <v>156</v>
+      </c>
+      <c r="K59" t="s">
+        <v>160</v>
+      </c>
+      <c r="L59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" t="s">
+        <v>160</v>
+      </c>
+      <c r="K60" t="s">
+        <v>160</v>
+      </c>
+      <c r="L60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" t="s">
+        <v>160</v>
+      </c>
+      <c r="K61" t="s">
+        <v>160</v>
+      </c>
+      <c r="L61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" t="s">
+        <v>176</v>
+      </c>
+      <c r="I62" t="s">
+        <v>182</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s">
+        <v>160</v>
+      </c>
+      <c r="L62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I63" t="s">
+        <v>177</v>
+      </c>
+      <c r="J63" t="s">
+        <v>160</v>
+      </c>
+      <c r="K63" t="s">
+        <v>160</v>
+      </c>
+      <c r="L63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" t="s">
+        <v>160</v>
+      </c>
+      <c r="K64" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" t="s">
+        <v>177</v>
+      </c>
+      <c r="J65" t="s">
+        <v>160</v>
+      </c>
+      <c r="K65" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" t="s">
+        <v>169</v>
+      </c>
+      <c r="H66" t="s">
+        <v>177</v>
+      </c>
+      <c r="I66" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66" t="s">
+        <v>160</v>
+      </c>
+      <c r="K66" t="s">
+        <v>187</v>
+      </c>
+      <c r="L66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" t="s">
+        <v>169</v>
+      </c>
+      <c r="I67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" t="s">
+        <v>160</v>
+      </c>
+      <c r="K68" t="s">
+        <v>160</v>
+      </c>
+      <c r="L68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" t="s">
+        <v>169</v>
+      </c>
+      <c r="I69" t="s">
+        <v>177</v>
+      </c>
+      <c r="J69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" t="s">
+        <v>169</v>
+      </c>
+      <c r="I70" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" t="s">
+        <v>160</v>
+      </c>
+      <c r="K70" t="s">
+        <v>160</v>
+      </c>
+      <c r="L70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" t="s">
+        <v>169</v>
+      </c>
+      <c r="I71" t="s">
+        <v>177</v>
+      </c>
+      <c r="J71" t="s">
+        <v>160</v>
+      </c>
+      <c r="K71" t="s">
+        <v>160</v>
+      </c>
+      <c r="L71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" t="s">
+        <v>169</v>
+      </c>
+      <c r="I72" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K72" t="s">
+        <v>160</v>
+      </c>
+      <c r="L72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>169</v>
+      </c>
+      <c r="I73" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" t="s">
+        <v>160</v>
+      </c>
+      <c r="K73" t="s">
+        <v>160</v>
+      </c>
+      <c r="L73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" t="s">
+        <v>169</v>
+      </c>
+      <c r="I74" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74" t="s">
+        <v>160</v>
+      </c>
+      <c r="K74" t="s">
+        <v>160</v>
+      </c>
+      <c r="L74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75" t="s">
+        <v>160</v>
+      </c>
+      <c r="J75" t="s">
+        <v>160</v>
+      </c>
+      <c r="K75" t="s">
+        <v>187</v>
+      </c>
+      <c r="L75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76" t="s">
+        <v>160</v>
+      </c>
+      <c r="K76" t="s">
+        <v>160</v>
+      </c>
+      <c r="L76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
+        <v>151</v>
+      </c>
+      <c r="H77" t="s">
+        <v>169</v>
+      </c>
+      <c r="I77" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" t="s">
+        <v>160</v>
+      </c>
+      <c r="L77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" t="s">
+        <v>169</v>
+      </c>
+      <c r="I78" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" t="s">
+        <v>160</v>
+      </c>
+      <c r="K78" t="s">
+        <v>160</v>
+      </c>
+      <c r="L78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" t="s">
+        <v>169</v>
+      </c>
+      <c r="I79" t="s">
+        <v>177</v>
+      </c>
+      <c r="J79" t="s">
+        <v>160</v>
+      </c>
+      <c r="K79" t="s">
+        <v>160</v>
+      </c>
+      <c r="L79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" t="s">
+        <v>169</v>
+      </c>
+      <c r="I80" t="s">
+        <v>177</v>
+      </c>
+      <c r="J80" t="s">
+        <v>160</v>
+      </c>
+      <c r="K80" t="s">
+        <v>160</v>
+      </c>
+      <c r="L80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" t="s">
-        <v>60</v>
+      <c r="D81" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" t="s">
+        <v>169</v>
+      </c>
+      <c r="I81" t="s">
+        <v>177</v>
+      </c>
+      <c r="J81" t="s">
+        <v>160</v>
+      </c>
+      <c r="K81" t="s">
+        <v>160</v>
+      </c>
+      <c r="L81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" t="s">
+        <v>169</v>
+      </c>
+      <c r="I82" t="s">
+        <v>177</v>
+      </c>
+      <c r="J82" t="s">
+        <v>160</v>
+      </c>
+      <c r="K82" t="s">
+        <v>160</v>
+      </c>
+      <c r="L82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>169</v>
+      </c>
+      <c r="I83" t="s">
+        <v>177</v>
+      </c>
+      <c r="J83" t="s">
+        <v>160</v>
+      </c>
+      <c r="K83" t="s">
+        <v>160</v>
+      </c>
+      <c r="L83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" t="s">
+        <v>177</v>
+      </c>
+      <c r="I84" t="s">
+        <v>160</v>
+      </c>
+      <c r="J84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K84" t="s">
+        <v>187</v>
+      </c>
+      <c r="L84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" t="s">
+        <v>169</v>
+      </c>
+      <c r="I85" t="s">
+        <v>177</v>
+      </c>
+      <c r="J85" t="s">
+        <v>160</v>
+      </c>
+      <c r="K85" t="s">
+        <v>160</v>
+      </c>
+      <c r="L85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" t="s">
+        <v>169</v>
+      </c>
+      <c r="I86" t="s">
+        <v>177</v>
+      </c>
+      <c r="J86" t="s">
+        <v>160</v>
+      </c>
+      <c r="K86" t="s">
+        <v>160</v>
+      </c>
+      <c r="L86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" t="s">
+        <v>151</v>
+      </c>
+      <c r="F87" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" t="s">
+        <v>169</v>
+      </c>
+      <c r="I87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J87" t="s">
+        <v>160</v>
+      </c>
+      <c r="K87" t="s">
+        <v>160</v>
+      </c>
+      <c r="L87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" t="s">
+        <v>151</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" t="s">
+        <v>169</v>
+      </c>
+      <c r="I88" t="s">
+        <v>177</v>
+      </c>
+      <c r="J88" t="s">
+        <v>160</v>
+      </c>
+      <c r="K88" t="s">
+        <v>160</v>
+      </c>
+      <c r="L88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" t="s">
+        <v>155</v>
+      </c>
+      <c r="H89" t="s">
+        <v>169</v>
+      </c>
+      <c r="I89" t="s">
+        <v>177</v>
+      </c>
+      <c r="J89" t="s">
+        <v>160</v>
+      </c>
+      <c r="K89" t="s">
+        <v>160</v>
+      </c>
+      <c r="L89" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
